--- a/Online RMS doc.xlsx
+++ b/Online RMS doc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MKyaing\Desktop\_Online RMS\Online RMS SRC DOC and Related DOC(2019-03-18)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\CloudBasedRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Doc Summary" sheetId="10" r:id="rId1"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
     <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4579,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
